--- a/public/files/excels/Classeur2.xlsx
+++ b/public/files/excels/Classeur2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A71B8980-C795-4C48-9689-BB0262CEF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAFBF93-3CA9-488F-9B99-8856664765B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9270" xr2:uid="{539FF7BF-091D-4C03-BAE3-02870B295EFA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{65699477-CA71-498C-897F-959C5CA3748D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>llllllllllllllllllllll</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,19 +379,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EADE27-CEEF-404F-B846-AAF34432193C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65316A1F-49C6-4335-ABCF-0DE7F5104203}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>